--- a/Final Project/data.xlsx
+++ b/Final Project/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matt\Documents\School\data-structures\Final Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52DC4124-CC70-4914-AD73-D2B36AC8C6C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29943116-ECEC-48B8-A090-8F3C6BAC223E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{3B93175F-05F1-4840-B2E8-F66039A2F241}"/>
   </bookViews>
@@ -38,12 +38,6 @@
     <t>Iteration</t>
   </si>
   <si>
-    <t>Insert Time</t>
-  </si>
-  <si>
-    <t>Search Time</t>
-  </si>
-  <si>
     <t>LL DS B</t>
   </si>
   <si>
@@ -54,6 +48,12 @@
   </si>
   <si>
     <t>BST DS B</t>
+  </si>
+  <si>
+    <t>Avg Insert Time</t>
+  </si>
+  <si>
+    <t>Avg Search Time</t>
   </si>
 </sst>
 </file>
@@ -197,7 +197,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Insert Time</c:v>
+                  <c:v>Avg Insert Time</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1439,7 +1439,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Search Time</c:v>
+                  <c:v>Avg Search Time</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3070,7 +3070,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Insert Time</c:v>
+                  <c:v>Avg Insert Time</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4312,7 +4312,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Search Time</c:v>
+                  <c:v>Avg Search Time</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5951,7 +5951,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Insert Time</c:v>
+                  <c:v>Avg Insert Time</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7193,7 +7193,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Search Time</c:v>
+                  <c:v>Avg Search Time</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -8822,7 +8822,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Insert Time</c:v>
+                  <c:v>Avg Insert Time</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -10064,7 +10064,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Search Time</c:v>
+                  <c:v>Avg Search Time</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -13879,15 +13879,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>90487</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>166687</xdr:rowOff>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -13951,15 +13951,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>90487</xdr:rowOff>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>166687</xdr:rowOff>
+      <xdr:rowOff>71437</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -14287,33 +14287,33 @@
   <dimension ref="A1:L402"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P39" sqref="P39"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" t="s">
         <v>4</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -14321,28 +14321,28 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H2" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K2" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
